--- a/stripped/S10041.mes.bin.xlsx
+++ b/stripped/S10041.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C8C80-F7A0-40F7-BC03-8C2567E4B614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D417A29-ABC4-4695-AF9F-CABE212B5A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10041.mes.bin" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>^Oh, no. I didn't mean at the station. I'll probably sleep\nat Ogata-san-san's...^</t>
+    <t>^Oh, no. I didn't mean at the station. I'll probably sleep\nat Ogata-san's...^</t>
   </si>
   <si>
     <t>53</t>
@@ -185,7 +185,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>^Which is why, starting at the beginning of this month,\nit'll be hard to track Yuki-san down as she'll be traveling\nbetween Ogata-san-san's studio and various TV stations every day.^</t>
+    <t>^Which is why, starting at the beginning of this month,\nit'll be hard to track Yuki-san down as she'll be traveling\nbetween Ogata-san's studio and various TV stations every day.^</t>
   </si>
   <si>
     <t>87</t>

--- a/stripped/S10041.mes.bin.xlsx
+++ b/stripped/S10041.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D417A29-ABC4-4695-AF9F-CABE212B5A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982F8ADC-4B2C-4E06-B2E4-DCE1D8BB86BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10041.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
   <si>
     <t>Status</t>
   </si>
@@ -149,7 +149,7 @@
     <t>65</t>
   </si>
   <si>
-    <t>She sits down next to Yuki-san.</t>
+    <t>She sits down next to Yuki.</t>
   </si>
   <si>
     <t>67</t>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>73</t>
+  </si>
+  <si>
+    <t>Then Yayoi-san turns to me.</t>
   </si>
   <si>
     <t>75</t>
@@ -850,7 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1444,7 +1449,9 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1453,7 +1460,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
@@ -1461,7 +1468,7 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1471,7 +1478,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -1487,7 +1494,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1501,7 +1508,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1515,7 +1522,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1529,7 +1536,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -1537,7 +1544,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1547,7 +1554,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
@@ -1563,7 +1570,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1577,7 +1584,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
@@ -1593,7 +1600,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -1609,7 +1616,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
@@ -1617,7 +1624,7 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -1627,7 +1634,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
@@ -1635,7 +1642,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -1645,7 +1652,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
@@ -1653,7 +1660,7 @@
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -1663,13 +1670,13 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1679,7 +1686,7 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
@@ -1695,7 +1702,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
@@ -1711,7 +1718,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
@@ -1727,7 +1734,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1741,7 +1748,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
@@ -1757,7 +1764,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1771,7 +1778,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1785,13 +1792,13 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -1801,7 +1808,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1815,7 +1822,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
@@ -1831,7 +1838,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
@@ -1839,7 +1846,7 @@
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -1849,7 +1856,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -1865,7 +1872,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
@@ -1881,7 +1888,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -1897,7 +1904,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1911,7 +1918,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1925,13 +1932,13 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -1941,7 +1948,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1955,7 +1962,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1969,7 +1976,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1983,13 +1990,13 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -1999,7 +2006,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
@@ -2015,7 +2022,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
@@ -2031,7 +2038,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
@@ -2047,7 +2054,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
@@ -2063,7 +2070,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
@@ -2079,7 +2086,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
@@ -2095,13 +2102,13 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -2111,7 +2118,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2125,7 +2132,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -2133,7 +2140,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -2143,7 +2150,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
@@ -2159,7 +2166,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
@@ -2175,7 +2182,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
@@ -2191,7 +2198,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2205,7 +2212,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2219,7 +2226,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2233,7 +2240,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
@@ -2249,7 +2256,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
@@ -2265,7 +2272,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
@@ -2281,7 +2288,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2295,7 +2302,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
@@ -2311,13 +2318,13 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -2327,7 +2334,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
@@ -2335,7 +2342,7 @@
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -2345,7 +2352,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
@@ -2361,13 +2368,13 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -2377,7 +2384,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
@@ -2385,7 +2392,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -2395,7 +2402,7 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
@@ -2411,7 +2418,7 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
@@ -2427,7 +2434,7 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2441,7 +2448,7 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
@@ -2457,7 +2464,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
@@ -2473,7 +2480,7 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2487,13 +2494,13 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -2503,7 +2510,7 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2517,7 +2524,7 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
@@ -2533,7 +2540,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
@@ -2549,7 +2556,7 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
@@ -2565,7 +2572,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
@@ -2581,7 +2588,7 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -2595,7 +2602,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2609,7 +2616,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
